--- a/TestNG/data/TestData.xlsx
+++ b/TestNG/data/TestData.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
   <si>
     <t>FirstName</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>11060</t>
+  </si>
+  <si>
+    <t>10193</t>
+  </si>
+  <si>
+    <t>10194</t>
   </si>
 </sst>
 </file>
@@ -1079,7 +1085,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1113,10 +1119,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1146,7 +1152,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
